--- a/storage/templates/人员导入模板.xlsx
+++ b/storage/templates/人员导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\其他\海康威视门禁\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02A9E1-DDE6-465E-891A-21A3C1DF6526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568DA4C-1451-4490-BB63-C0FCB2BE8276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="27830" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="5700" windowWidth="35790" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>人员导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,26 +70,22 @@
   </si>
   <si>
     <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门/科室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 红色为必填项
 2. 数据从第四行开始读取
-3. 如果有科室则填到科室，没有科室仅需填到部门
+3.  所属部门/科室名称在系统中必须是唯一的
 4. 角色、人员类型必须按照系统中内容金星填写
 5. 通行线路必须与系统中名称保持一致，如果有多个，中间用半角逗号“，”隔开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通行路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,28 +518,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="13.4140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="22.4140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="16.9140625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="22.4140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -556,11 +551,10 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -571,9 +565,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,39 +576,36 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576" xr:uid="{0D9BDC67-48D8-4DA5-BB13-4DEC586E646F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{0D9BDC67-48D8-4DA5-BB13-4DEC586E646F}">
       <formula1>"在职,离职"</formula1>
     </dataValidation>
   </dataValidations>
